--- a/data/free_field_of_antenna_6-14GHz_0-6dBm_generator_output_distance_5mm.xlsx
+++ b/data/free_field_of_antenna_6-14GHz_0-6dBm_generator_output_distance_5mm.xlsx
@@ -203,7 +203,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -215,10 +215,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0624400383754397"/>
-          <c:y val="0.0444248308325978"/>
-          <c:w val="0.898744803325872"/>
-          <c:h val="0.802000588408355"/>
+          <c:x val="0.0624425344793124"/>
+          <c:y val="0.0444280985656491"/>
+          <c:w val="0.898700779532281"/>
+          <c:h val="0.801912467819051"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -251,7 +251,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -400,7 +400,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="43c330"/>
@@ -411,7 +411,7 @@
             <c:idx val="4"/>
             <c:marker>
               <c:symbol val="circle"/>
-              <c:size val="6"/>
+              <c:size val="9"/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="43c330"/>
@@ -582,7 +582,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ff4000"/>
@@ -593,7 +593,7 @@
             <c:idx val="3"/>
             <c:marker>
               <c:symbol val="circle"/>
-              <c:size val="5"/>
+              <c:size val="9"/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="ff4000"/>
@@ -737,11 +737,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="16019281"/>
-        <c:axId val="46911469"/>
+        <c:axId val="53365199"/>
+        <c:axId val="55077964"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16019281"/>
+        <c:axId val="53365199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -799,12 +799,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46911469"/>
+        <c:crossAx val="55077964"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46911469"/>
+        <c:axId val="55077964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -861,7 +861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16019281"/>
+        <c:crossAx val="53365199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -930,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>686160</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -941,7 +941,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4486320" y="1180080"/>
-        <a:ext cx="9005400" cy="4894200"/>
+        <a:ext cx="9005040" cy="4893840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -962,7 +962,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="V29" activeCellId="0" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/free_field_of_antenna_6-14GHz_0-6dBm_generator_output_distance_5mm.xlsx
+++ b/data/free_field_of_antenna_6-14GHz_0-6dBm_generator_output_distance_5mm.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Graduate Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="lvtemporary_573329" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="lvtemporary_573329" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,62 +26,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Frequency (GHz)</t>
+    <t>Frequency (GHz)</t>
   </si>
   <si>
-    <t xml:space="preserve">0 dBm</t>
+    <t>0 dBm</t>
   </si>
   <si>
-    <t xml:space="preserve">3 dBm</t>
+    <t>3 dBm</t>
   </si>
   <si>
-    <t xml:space="preserve">6 dBm</t>
+    <t>6 dBm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +60,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -97,49 +68,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -198,15 +138,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -215,10 +173,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0624425344793124"/>
-          <c:y val="0.0444280985656491"/>
-          <c:w val="0.898700779532281"/>
-          <c:h val="0.801912467819051"/>
+          <c:x val="7.7420528288713472E-2"/>
+          <c:y val="4.4428098565649103E-2"/>
+          <c:w val="0.8837228348966073"/>
+          <c:h val="0.80191246781905101"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -239,9 +197,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="18360">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -251,23 +206,34 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -276,8 +242,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -294,8 +261,6 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -342,31 +307,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.244266</c:v>
+                  <c:v>0.24426600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.414399</c:v>
+                  <c:v>0.41439900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.091222</c:v>
+                  <c:v>9.1221999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18362</c:v>
+                  <c:v>1.1836199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.14211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.38203</c:v>
+                  <c:v>2.3820299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.24589</c:v>
+                  <c:v>2.2458900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.57235</c:v>
+                  <c:v>1.5723499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.96209</c:v>
+                  <c:v>1.9620899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,49 +353,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="43c330"/>
-            </a:solidFill>
             <a:ln w="18360">
               <a:solidFill>
-                <a:srgbClr val="43c330"/>
+                <a:srgbClr val="43C330"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="43c330"/>
+                <a:srgbClr val="43C330"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="9"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="43c330"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="r"/>
@@ -439,17 +398,25 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator> </c:separator>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -458,8 +425,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -470,14 +438,12 @@
             <c:spPr>
               <a:ln w="9000">
                 <a:solidFill>
-                  <a:srgbClr val="43c330"/>
+                  <a:srgbClr val="43C330"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -524,28 +490,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.152076</c:v>
+                  <c:v>0.15207599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.450256</c:v>
+                  <c:v>0.45025599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.39271</c:v>
+                  <c:v>1.3927099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.83193</c:v>
+                  <c:v>1.8319300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.90213</c:v>
+                  <c:v>1.9021300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.81182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.50181</c:v>
+                  <c:v>3.5018099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.92772</c:v>
+                  <c:v>2.9277199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.47437</c:v>
@@ -570,49 +536,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff4000"/>
-            </a:solidFill>
             <a:ln w="18360">
               <a:solidFill>
-                <a:srgbClr val="ff4000"/>
+                <a:srgbClr val="FF4000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff4000"/>
+                <a:srgbClr val="FF4000"/>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="9"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ff4000"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="r"/>
@@ -621,17 +581,25 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator> </c:separator>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -640,8 +608,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -652,14 +621,12 @@
             <c:spPr>
               <a:ln w="9000">
                 <a:solidFill>
-                  <a:srgbClr val="ff4000"/>
+                  <a:srgbClr val="FF4000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -706,42 +673,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.346751</c:v>
+                  <c:v>0.34675099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.450611</c:v>
+                  <c:v>0.45061099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.71476</c:v>
+                  <c:v>1.7147600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.37472</c:v>
+                  <c:v>2.3747199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.28673</c:v>
+                  <c:v>2.2867299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.3952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.97653</c:v>
+                  <c:v>3.9765299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.04241</c:v>
+                  <c:v>4.0424100000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.49072</c:v>
+                  <c:v>4.4907199999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="53365199"/>
-        <c:axId val="55077964"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="294774216"/>
+        <c:axId val="294769512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53365199"/>
+        <c:axId val="294774216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -756,12 +731,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Frequency (GHz)</a:t>
@@ -769,6 +744,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -784,7 +760,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -793,18 +769,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr sz="1100" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55077964"/>
+        <c:crossAx val="294769512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55077964"/>
+        <c:axId val="294769512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -818,12 +795,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Intensity (a. u.)</a:t>
@@ -831,6 +808,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -846,7 +824,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -855,13 +833,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr sz="1100" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53365199"/>
+        <c:crossAx val="294774216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -869,21 +848,33 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0650757484910261"/>
-          <c:y val="0.0427300139736707"/>
-          <c:w val="0.200703521605308"/>
-          <c:h val="0.304846657350886"/>
+          <c:x val="6.5075713973174479E-2"/>
+          <c:y val="9.0468323597735614E-2"/>
+          <c:w val="0.20754278790326652"/>
+          <c:h val="0.16879271070615037"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -898,50 +889,57 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+            <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>369795</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>128520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4486320" y="1180080"/>
-        <a:ext cx="9005040" cy="4893840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -954,25 +952,283 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V29" activeCellId="0" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9.14"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,140 +1242,135 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.244266</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.152076</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.346751</v>
+      <c r="B2" s="1">
+        <v>0.24426600000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.15207599999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.34675099999999998</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.414399</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.450256</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.450611</v>
+      <c r="B3" s="1">
+        <v>0.41439900000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.45025599999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.45061099999999998</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.091222</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1.39271</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1.71476</v>
+      <c r="B4" s="1">
+        <v>9.1221999999999998E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3927099999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.7147600000000001</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.18362</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1.83193</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>2.37472</v>
+      <c r="B5" s="1">
+        <v>1.1836199999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.8319300000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3747199999999999</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1.14211</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1.90213</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>2.28673</v>
+      <c r="C6" s="1">
+        <v>1.9021300000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.2867299999999999</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>2.38203</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>2.3820299999999999</v>
+      </c>
+      <c r="C7" s="1">
         <v>3.81182</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>4.3952</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>2.24589</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>3.50181</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>3.97653</v>
+      <c r="B8" s="1">
+        <v>2.2458900000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.5018099999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.9765299999999999</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1.57235</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2.92772</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>4.04241</v>
+      <c r="B9" s="1">
+        <v>1.5723499999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.9277199999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.0424100000000003</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1.96209</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="1">
+        <v>1.9620899999999999</v>
+      </c>
+      <c r="C10" s="1">
         <v>3.47437</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>4.49072</v>
+      <c r="D10" s="1">
+        <v>4.4907199999999996</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>